--- a/import.xlsx
+++ b/import.xlsx
@@ -14,64 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Text</t>
   </si>
   <si>
-    <t>RT @ichawirsa_ivana: Olshop Shopee, knp disarankan mesti bisa sampai jd Starseller.
-1. Toko diprioritaskan di halaman pencarian. 
-"More ex…</t>
-  </si>
-  <si>
-    <t>@ynrachhh Shopee berusaha meningkatkan performa agar Kakak bisa lebih nyaman bertransaksi. semoga kejadian serupa tidak terulang🙏 (2/2) ^VA</t>
-  </si>
-  <si>
-    <t>@tweetdarisayang @sbyfess mungkin itu bisa jadi saingan juga, pake fake account, buat nurunin performa seller, kare… https://t.co/n9znrCQ0PI</t>
-  </si>
-  <si>
-    <t>Olshop Shopee, knp disarankan mesti bisa sampai jd Starseller.
-1. Toko diprioritaskan di halaman pencarian. 
-"More… https://t.co/wlLyckxKnU</t>
-  </si>
-  <si>
-    <t>Shopee update mulu, performa aplikasi bukanya makin bagus malah lemot parah</t>
-  </si>
-  <si>
-    <t>@Dyahayu04728381 Mimin infoin shopee akan mengevaluasi performa toko di minggu sebelumnya berdasarkan berbagai aspek seperti (2/4)</t>
-  </si>
-  <si>
-    <t>RT @skincarian: Untuk hydrating cleanser, menurutku Wardah Hydra Rose ini gampang dicari dan harganya masuk ke kantong pelajar. Untuk clean…</t>
-  </si>
-  <si>
-    <t>Untuk hydrating cleanser, menurutku Wardah Hydra Rose ini gampang dicari dan harganya masuk ke kantong pelajar. Unt… https://t.co/i8vDtgefWQ</t>
-  </si>
-  <si>
-    <t>di shopee nemu yg dom jakut, tp pas liat performa chatnya HADEEEH 14% doang? berarti kan ga fast respon ye 🤦🏻‍♀️</t>
-  </si>
-  <si>
-    <t>RT @vivo_indonesia: Udah saatnya upgrade smartphone kamu ke #vivoT1Pro5G! 
-Yuk cari tahu performa yang turbo banget dari #vivoT1Pro5G di…</t>
-  </si>
-  <si>
-    <t>Udah saatnya upgrade smartphone kamu ke #vivoT1Pro5G! 
-Yuk cari tahu performa yang turbo banget dari #vivoT1Pro5G… https://t.co/PAuPlNLsyJ</t>
-  </si>
-  <si>
-    <t>🌷 concealer: creamy, nggak gampang kering/nge set which is good kalau kamu masih belajar blending complexion.
-perfo… https://t.co/eeaiUtCHXP</t>
-  </si>
-  <si>
-    <t>@yzxjogja Shopee akan terus meningkatkan performa agar selalu dpt memenuhi kebutuhan pengguna ya kak. DM mimin jika… https://t.co/NbN7Ro3nu8</t>
-  </si>
-  <si>
-    <t>@urchocopie_ akan meningkatkan performa biar km makin nyaman belanja di Shopee. untuk pengecekan lebih lanjut, yuk… https://t.co/uNwTWsj8Ib</t>
-  </si>
-  <si>
-    <t>@ShopeeID mimin shopee knp ya ini shopee affiliate aku masih belum ada laporan performa mingguannya yg warna biru i… https://t.co/26jwZMG6E6</t>
-  </si>
-  <si>
-    <t>@miepuding Nah itu, padahal yaa foto juga tinggal ambil dari shopee, kasih link, gak dicobain, bahkan gak tau itu b… https://t.co/ULNEBXYgep</t>
+    <t>RT @Galihzainur1: @Gus_Arifin @ShamsiAli2 Semua Tergantung Kepentingan. dan Agama mungkin masih mjd alat yg ampuh untuk meraih kuasa.👈👉 dan…</t>
+  </si>
+  <si>
+    <t>RT @AkliStaifi19: Idrissa Gana Gueye qui refuse d'aller à Israël pour la Coupe de France, il refuse aussi de porter le flocage LGBT
+Quel r…</t>
+  </si>
+  <si>
+    <t>@kointhecut22 @APJ4R3N @PostMalone Bro the same elites that be underpaying their LGBT employees? They're making a k… https://t.co/3Fg55s0aln</t>
+  </si>
+  <si>
+    <t>tá muito frio</t>
+  </si>
+  <si>
+    <t>RT @tyriemaelstrom: Genre y a des gens qui veulent qu'il soit viré, le psg appartient au qatar pays où les lgbt sont punit de la peine de m…</t>
+  </si>
+  <si>
+    <t>yes we all want a nick or a charlie but what about having a friend group like nick, charlie, tao, isaac, elle, tar… https://t.co/iv73bniboA</t>
+  </si>
+  <si>
+    <t>RT @purrjurr: ทำหนัง LGBT ไม่ต้องพยายามจะขับเคลื่อนสังคมหรอก
+แค่เล่าเรื่องของคนสองคนที่ก็ใช้ชีวิตปกติ รักกันปกติ
+แค่นั้นแม่งก็ขับเคลื่อนจะแ…</t>
+  </si>
+  <si>
+    <t>@mariomojc mi familia es así igualmente, se van a ir de culo cuando sepan que soy parte de la comunidad LGBT</t>
+  </si>
+  <si>
+    <t>RT @LaVeritaWeb: Una circolare del ministero dell’Istruzione fissa per martedì 17 la discussione di temi Lgbt in classe. Ma i genitori non…</t>
+  </si>
+  <si>
+    <t>@uhmisspeach caravkakakakakak</t>
   </si>
 </sst>
 </file>
@@ -429,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -461,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -469,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -477,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -485,7 +463,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -493,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -501,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -509,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -517,87 +495,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
         <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
